--- a/ExcelConfig/克制关系.xlsx
+++ b/ExcelConfig/克制关系.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,22 @@
   </si>
   <si>
     <t>DefType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IconName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术资源名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,16 +529,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -544,27 +560,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="19.125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -586,8 +604,11 @@
       <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -609,8 +630,11 @@
       <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -632,8 +656,11 @@
       <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -652,8 +679,11 @@
       <c r="G4" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -672,8 +702,11 @@
       <c r="G5" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -692,8 +725,11 @@
       <c r="G6" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -712,8 +748,11 @@
       <c r="G7" s="5">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>5</v>
       </c>
@@ -731,6 +770,9 @@
       </c>
       <c r="G8" s="5">
         <v>0.9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/克制关系.xlsx
+++ b/ExcelConfig/克制关系.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="5865" yWindow="855" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,18 +87,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>魔</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>妖</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>兽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>冥</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -122,19 +114,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>佛</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>IconName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xian</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>yao</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术资源名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -237,7 +232,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -279,7 +274,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -314,7 +309,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -566,7 +561,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -577,9 +572,7 @@
     <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="19.125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -593,19 +586,19 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -622,16 +615,16 @@
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -657,7 +650,7 @@
         <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -671,16 +664,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="5">
-        <v>1.25</v>
+        <v>12500</v>
       </c>
       <c r="F4" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4" s="5">
-        <v>0.9</v>
+        <v>9000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -694,13 +687,13 @@
         <v>3</v>
       </c>
       <c r="E5" s="5">
-        <v>1.25</v>
+        <v>12500</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
       </c>
       <c r="G5" s="5">
-        <v>0.9</v>
+        <v>9000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>29</v>
@@ -717,13 +710,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="5">
-        <v>1.25</v>
+        <v>12500</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
       </c>
       <c r="G6" s="5">
-        <v>0.9</v>
+        <v>9000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -734,46 +727,31 @@
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>1.25</v>
+        <v>12500</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
       </c>
       <c r="G7" s="5">
-        <v>0.9</v>
+        <v>9000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1.25</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/ExcelConfig/克制关系.xlsx
+++ b/ExcelConfig/克制关系.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="855" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="5868" yWindow="852" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,7 +129,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yao</t>
+    <t>ywt2_mo</t>
+  </si>
+  <si>
+    <t>ywt2_xian</t>
+  </si>
+  <si>
+    <t>ywt2_yao</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,7 +238,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -274,7 +280,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -309,7 +315,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,16 +530,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -561,21 +567,23 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="17.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -601,7 +609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -627,7 +635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -653,7 +661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -673,10 +681,10 @@
         <v>9000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -696,10 +704,10 @@
         <v>9000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -722,7 +730,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -745,7 +753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>

--- a/ExcelConfig/克制关系.xlsx
+++ b/ExcelConfig/克制关系.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,13 +129,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ywt2_mo</t>
-  </si>
-  <si>
-    <t>ywt2_xian</t>
-  </si>
-  <si>
     <t>ywt2_yao</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xian</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +573,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="H12" activeCellId="1" sqref="H6 H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -681,7 +687,7 @@
         <v>9000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -704,7 +710,7 @@
         <v>9000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -727,7 +733,7 @@
         <v>9000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -750,7 +756,7 @@
         <v>9000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">

--- a/ExcelConfig/克制关系.xlsx
+++ b/ExcelConfig/克制关系.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="852" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="5865" yWindow="855" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -286,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,16 +536,16 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -573,23 +573,23 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H12" activeCellId="1" sqref="H6 H12"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="17.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.375" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -615,7 +615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -641,7 +641,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" s="5">
         <v>1</v>
       </c>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="5">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="F4" s="5">
         <v>4</v>
@@ -690,7 +690,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5">
         <v>2</v>
       </c>
@@ -701,7 +701,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="5">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <v>3</v>
       </c>
@@ -724,7 +724,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="5">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="F6" s="5">
         <v>2</v>
@@ -736,7 +736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <v>4</v>
       </c>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>12500</v>
+        <v>11500</v>
       </c>
       <c r="F7" s="5">
         <v>3</v>
@@ -759,7 +759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
